--- a/Financials/Yearly/ACA_YR_FIN.xlsx
+++ b/Financials/Yearly/ACA_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFB19B23-E3E0-409E-A9BE-C32FAE2B782C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="ACA" sheetId="6" r:id="rId1"/>
@@ -304,9 +303,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -348,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,33 +654,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C41CC4-5E05-4EC6-9C3E-B6D131A423DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -742,7 +707,7 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -769,7 +734,7 @@
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -796,7 +761,7 @@
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -823,7 +788,7 @@
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -836,7 +801,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -863,7 +828,7 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,7 +855,7 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -917,7 +882,7 @@
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -944,7 +909,7 @@
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -954,7 +919,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -981,7 +946,7 @@
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1008,7 +973,7 @@
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1021,7 +986,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1048,7 +1013,7 @@
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1075,7 +1040,7 @@
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1102,7 +1067,7 @@
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1129,7 +1094,7 @@
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1156,7 +1121,7 @@
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,7 +1148,7 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1210,7 +1175,7 @@
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1237,7 +1202,7 @@
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1264,7 +1229,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1291,7 +1256,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1318,7 +1283,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1345,7 +1310,7 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1372,7 +1337,7 @@
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1399,7 +1364,7 @@
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1426,7 +1391,7 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1453,12 +1418,12 @@
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1485,7 +1450,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1498,7 +1463,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1511,7 +1476,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1538,7 +1503,7 @@
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1565,12 +1530,12 @@
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>291400</v>
+        <v>582800</v>
       </c>
       <c r="E43" s="3">
         <v>165300</v>
@@ -1592,7 +1557,7 @@
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1619,12 +1584,12 @@
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>23700</v>
+        <v>24100</v>
       </c>
       <c r="E45" s="3">
         <v>9900</v>
@@ -1646,12 +1611,12 @@
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>667000</v>
+        <v>667400</v>
       </c>
       <c r="E46" s="3">
         <v>428800</v>
@@ -1673,7 +1638,7 @@
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1700,7 +1665,7 @@
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1727,7 +1692,7 @@
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1754,7 +1719,7 @@
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1781,7 +1746,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1808,12 +1773,12 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>87000</v>
+        <v>166700</v>
       </c>
       <c r="E52" s="3">
         <v>96300</v>
@@ -1835,7 +1800,7 @@
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1862,7 +1827,7 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1889,7 +1854,7 @@
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1902,7 +1867,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1915,7 +1880,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1942,7 +1907,7 @@
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1969,12 +1934,12 @@
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>146200</v>
+        <v>121500</v>
       </c>
       <c r="E59" s="3">
         <v>118000</v>
@@ -1996,12 +1961,12 @@
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>234200</v>
+        <v>209500</v>
       </c>
       <c r="E60" s="3">
         <v>174100</v>
@@ -2023,7 +1988,7 @@
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2050,12 +2015,12 @@
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>69800</v>
+        <v>94500</v>
       </c>
       <c r="E62" s="3">
         <v>20100</v>
@@ -2077,7 +2042,7 @@
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2104,7 +2069,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2131,7 +2096,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2158,7 +2123,7 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2185,7 +2150,7 @@
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2198,7 +2163,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2225,7 +2190,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2252,7 +2217,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2279,7 +2244,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2306,7 +2271,7 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2333,7 +2298,7 @@
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2360,7 +2325,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2387,7 +2352,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2414,7 +2379,7 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2441,7 +2406,7 @@
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2468,12 +2433,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2500,7 +2465,7 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2527,7 +2492,7 @@
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2540,7 +2505,7 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2567,7 +2532,7 @@
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2594,7 +2559,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2621,7 +2586,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2648,7 +2613,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2675,7 +2640,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2702,7 +2667,7 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2729,7 +2694,7 @@
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2742,7 +2707,7 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2769,7 +2734,7 @@
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2796,7 +2761,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2823,7 +2788,7 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2850,7 +2815,7 @@
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2863,7 +2828,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2890,7 +2855,7 @@
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2917,7 +2882,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2944,7 +2909,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2971,7 +2936,7 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -2998,7 +2963,7 @@
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3025,7 +2990,7 @@
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
